--- a/public/assets/employee.xlsx
+++ b/public/assets/employee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tactics\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,27 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>full_name</t>
+    <t>Full Name</t>
   </si>
   <si>
-    <t>emp_mobile</t>
+    <t>Mobile</t>
   </si>
   <si>
-    <t>emp_aadhar</t>
-  </si>
-  <si>
-    <t>Manish Gupta</t>
-  </si>
-  <si>
-    <t>Rohan Yadav</t>
-  </si>
-  <si>
-    <t>Aman</t>
-  </si>
-  <si>
-    <t>Sumit Yadav</t>
+    <t>Aadhar</t>
   </si>
 </sst>
 </file>
@@ -86,11 +74,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -377,7 +364,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,60 +376,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>7800105170</v>
-      </c>
-      <c r="C2" s="2">
-        <v>959588865311</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>7800105170</v>
-      </c>
-      <c r="C3" s="2">
-        <v>780010517811</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1235487965</v>
-      </c>
-      <c r="C4" s="2">
-        <v>215478965231</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1254879635</v>
-      </c>
-      <c r="C5" s="4">
-        <v>215487596321</v>
-      </c>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
